--- a/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-IA-le.xlsx
+++ b/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-IA-le.xlsx
@@ -194,7 +194,7 @@
     <t>https://openminds.ebrains.eu/instances/productAccessibility/paidAccess</t>
   </si>
   <si>
-    <t>https://openminds.ebrans.eu/instances/ISBN/0-12-547612-4</t>
+    <t>https://openminds.ebrains.eu/instances/ISBN/0-12-547612-4</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E1139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-IA-le.xlsx
+++ b/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-IA-le.xlsx
@@ -176,9 +176,6 @@
     <t>Paxinos, G. and Watson, C. (2004) The Rat Brain in Stereotaxic Coordinates. 5th Edition, Academic Press, San Diego.</t>
   </si>
   <si>
-    <t>v2004 (Interaural, left)</t>
-  </si>
-  <si>
     <t>PW-RBSC-corT</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>https://openminds.ebrains.eu/instances/ISBN/0-12-547612-4</t>
+  </si>
+  <si>
+    <t>v2004 (Interaural, LSA)</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:E1139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
